--- a/data/0029000/cancer_prediction.xlsx
+++ b/data/0029000/cancer_prediction.xlsx
@@ -528,26 +528,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -556,33 +556,33 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Cancer</t>
+          <t>Non-Cancer</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
